--- a/input_data.xlsx
+++ b/input_data.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Login_creds" sheetId="1" r:id="rId1"/>
     <sheet name="Elements" sheetId="2" r:id="rId2"/>
     <sheet name="Bulk Import" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>Username</t>
   </si>
@@ -90,6 +91,45 @@
   </si>
   <si>
     <t>Standalone</t>
+  </si>
+  <si>
+    <t>P0001 - CC000011 Bill Import</t>
+  </si>
+  <si>
+    <t>P0002 - CC000022 Bill Import</t>
+  </si>
+  <si>
+    <t>P0003 - CC000033 Bill Import</t>
+  </si>
+  <si>
+    <t>ImportFormat</t>
+  </si>
+  <si>
+    <t>//a[@class='k-button k-button-icontext k-grid-Add']</t>
+  </si>
+  <si>
+    <t>AddButton</t>
+  </si>
+  <si>
+    <t>CasestoExecute</t>
+  </si>
+  <si>
+    <t>Import</t>
+  </si>
+  <si>
+    <t>Export</t>
+  </si>
+  <si>
+    <t>Reports</t>
+  </si>
+  <si>
+    <t>Executable</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -413,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,48 +466,20 @@
     <col min="3" max="3" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -479,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,25 +534,29 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B5"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="68" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -548,7 +564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -558,19 +574,25 @@
       <c r="D2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -580,30 +602,111 @@
       <c r="D4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1">
-        <v>45193.772256944445</v>
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45227.104201388887</v>
+      </c>
       <c r="D6" t="s">
         <v>22</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations xWindow="640" yWindow="473" count="1">
+  <dataValidations xWindow="640" yWindow="473" count="2">
     <dataValidation type="list" errorTitle="Invalid Entry!" error="The entry is invalid." promptTitle="Select" sqref="B3">
       <formula1>$D$2:$D$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B5">
+      <formula1>$E$2:$E$4</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B4">
+      <formula1>$E$2:$E$3</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/input_data.xlsx
+++ b/input_data.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Login_creds" sheetId="1" r:id="rId1"/>
     <sheet name="Elements" sheetId="2" r:id="rId2"/>
     <sheet name="Bulk Import" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
+    <sheet name="CasesSheet" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -546,7 +547,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,10 +653,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
